--- a/datasets/Monthly-BRH-US-HTG.xlsx
+++ b/datasets/Monthly-BRH-US-HTG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grégory PINCHINAT\Documents\89-mem-var\datasets\datasets2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grégory PINCHINAT\Documents\88-mem-var\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A92496-6B30-499A-83B3-6E8DF33D5B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D24813B-1F9F-4922-95CD-C2B955E73328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table-1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -526,7 +526,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -881,11 +881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="A340" sqref="A340"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,7 +907,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>32874</v>
+        <v>33147</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>44075</v>
+        <v>43709</v>
       </c>
       <c r="B349">
         <v>93.349800000000002</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="B350">
         <v>92.089799999999997</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>44136</v>
+        <v>43770</v>
       </c>
       <c r="B351">
         <v>91.671700000000001</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>44166</v>
+        <v>43800</v>
       </c>
       <c r="B352">
         <v>91.865799999999993</v>
